--- a/WorkBehindPercent TIS.xlsx
+++ b/WorkBehindPercent TIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2. WJI\WJI GitHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E6DE7F-3C80-4C24-A2F4-9D0E3E7AB6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D4722-DECD-4CDE-A50E-A5277852558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA5631B8-C0EE-47D2-857D-428D18929A7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">75% Drug-Related </t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -413,15 +416,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -434,9 +431,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -449,9 +443,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -464,9 +455,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -476,16 +464,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,581 +809,592 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:31" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="I2" s="23">
+      <c r="E2" s="27"/>
+      <c r="I2" s="17">
         <f>SUM(B3:B12)</f>
         <v>590</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="18">
         <f>SUM(B12+B5)/590</f>
         <v>0.27966101694915252</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="18">
         <f>(B10+B9)/590</f>
         <v>0.10677966101694915</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>291</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>20.507399577167018</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>20.507399577167018</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="27">
         <f>B3/590</f>
         <v>0.49322033898305084</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>33</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>2.3255813953488373</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>2.3255813953488373</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="27">
         <f t="shared" ref="E4:E12" si="0">B4/590</f>
         <v>5.5932203389830508E-2</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="20">
         <v>0.49</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="2"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>146</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>10.288935870331219</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>10.288935870331219</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>0.24745762711864408</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="4" t="s">
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="23">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="17">
         <f>SUM(Z6:Z16)</f>
         <v>12610</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>0.42283298097251587</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0.42283298097251587</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>1.0169491525423728E-2</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="20">
         <v>0.04</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="6">
         <v>4442</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="7">
         <v>17.710617598979304</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="7">
         <v>17.710617598979304</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="8">
         <v>17.710617598979304</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="25">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="18">
         <f>Z6/12610</f>
         <v>0.35226011102299765</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>22</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>1.5503875968992249</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>1.5503875968992249</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>3.7288135593220341E-2</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="20">
         <v>0.11</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13" t="s">
+      <c r="X7" s="25"/>
+      <c r="Y7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="10">
         <v>247</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="11">
         <v>0.98480921813324829</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="11">
         <v>0.98480921813324829</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="12">
         <v>18.695426817112555</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="25">
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="18">
         <f t="shared" ref="AE7:AE10" si="1">Z7/12610</f>
         <v>1.9587628865979381E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>0.63424947145877375</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>0.63424947145877375</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>1.5254237288135594E-2</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="20">
         <v>0.06</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13" t="s">
+      <c r="M8" s="20">
+        <f>SUM(K4:K8)</f>
+        <v>0.98</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="10">
         <v>5955</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="11">
         <v>23.743072445277303</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="11">
         <v>23.743072445277303</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="12">
         <v>42.438499262389854</v>
       </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="25">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="18">
         <f t="shared" si="1"/>
         <v>0.47224425059476605</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>13</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>0.91613812544045115</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>0.91613812544045115</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>2.2033898305084745E-2</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13" t="s">
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="10">
         <v>48</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="11">
         <v>0.19137992902994297</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="11">
         <v>0.19137992902994297</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="12">
         <v>42.629879191419803</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="25">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="18">
         <f>Z9/12610</f>
         <v>3.8065027755749404E-3</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <v>50</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>3.5236081747709656</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>3.5236081747709656</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="13" t="s">
+      <c r="X10" s="25"/>
+      <c r="Y10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="10">
         <v>479</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="11">
         <v>1.9098122084446394</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="11">
         <v>1.9098122084446394</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="12">
         <v>44.539691399864438</v>
       </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="25">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="18">
         <f t="shared" si="1"/>
         <v>3.7985725614591591E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>7.0472163495419307E-2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>7.0472163495419307E-2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>1.6949152542372881E-3</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13" t="s">
+      <c r="X11" s="25"/>
+      <c r="Y11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="10">
         <v>513</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="11">
         <v>2.0453729915075156</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="11">
         <v>2.0453729915075156</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="12">
         <v>46.585064391371958</v>
       </c>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>1.3389711064129668</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>1.3389711064129668</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>3.2203389830508473E-2</v>
       </c>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13" t="s">
+      <c r="X12" s="25"/>
+      <c r="Y12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z12" s="10">
         <v>39</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="11">
         <v>0.15549619233682865</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="11">
         <v>0.15549619233682865</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="12">
         <v>46.740560583708785</v>
       </c>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>829</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>58.421423537702609</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>58.421423537702609</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="13" t="s">
+      <c r="E13" s="27"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="10">
         <v>210</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="11">
         <v>0.83728718950600056</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="11">
         <v>0.83728718950600056</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13" s="12">
         <v>47.577847773214785</v>
       </c>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="14">
         <v>1419</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>100</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>100</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="13" t="s">
+      <c r="E14" s="27"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="10">
         <v>454</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="11">
         <v>1.8101351620748773</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="11">
         <v>1.8101351620748773</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="12">
         <v>49.387982935289656</v>
       </c>
-      <c r="AD14" s="2"/>
+      <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="2"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="13" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="27"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z15" s="10">
         <v>220</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="11">
         <v>0.87715800805390542</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="11">
         <v>0.87715800805390542</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AC15" s="12">
         <v>50.265140943343567</v>
       </c>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="X16" s="12"/>
-      <c r="Y16" s="13" t="s">
+      <c r="X16" s="25"/>
+      <c r="Y16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z16" s="10">
         <v>3</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="11">
         <v>1.1961245564371436E-2</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="11">
         <v>1.1961245564371436E-2</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="12">
         <v>50.277102188907939</v>
       </c>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="24:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="X17" s="12"/>
-      <c r="Y17" s="13" t="s">
+      <c r="X17" s="25"/>
+      <c r="Y17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="10">
         <v>12471</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="11">
         <v>49.722897811092061</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="11">
         <v>49.722897811092061</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AC17" s="12">
         <v>100</v>
       </c>
-      <c r="AD17" s="2"/>
+      <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="24:30" x14ac:dyDescent="0.25">
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18" t="s">
+      <c r="X18" s="26"/>
+      <c r="Y18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="14">
         <v>25081</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="15">
         <v>100</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="15">
         <v>100</v>
       </c>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="2"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="24:30" x14ac:dyDescent="0.25">
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="2"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
